--- a/Curso R/bd/regioes.xlsx
+++ b/Curso R/bd/regioes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="69">
   <si>
     <t>uf</t>
   </si>
@@ -207,6 +207,21 @@
   </si>
   <si>
     <t>desc_regiao</t>
+  </si>
+  <si>
+    <t>Norte</t>
+  </si>
+  <si>
+    <t>Nordeste</t>
+  </si>
+  <si>
+    <t>Sudeste</t>
+  </si>
+  <si>
+    <t>Sul</t>
+  </si>
+  <si>
+    <t>Centro-Oeste</t>
   </si>
 </sst>
 </file>
@@ -545,397 +560,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
+      <c r="B8">
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
+      <c r="B9">
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
+      <c r="B10">
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
+      <c r="B11">
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>15</v>
+      <c r="B12">
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
+      <c r="B13">
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>17</v>
+      <c r="B14">
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
-        <v>18</v>
+      <c r="B15">
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>29</v>
       </c>
-      <c r="B16" t="s">
-        <v>19</v>
+      <c r="B16">
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
-        <v>20</v>
+      <c r="B17">
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
-        <v>21</v>
+      <c r="B18">
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>33</v>
       </c>
-      <c r="B19" t="s">
-        <v>22</v>
+      <c r="B19">
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>35</v>
       </c>
-      <c r="B20" t="s">
-        <v>23</v>
+      <c r="B20">
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
-        <v>24</v>
+      <c r="B21">
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
-        <v>25</v>
+      <c r="B22">
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>43</v>
       </c>
-      <c r="B23" t="s">
-        <v>26</v>
+      <c r="B23">
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
-        <v>27</v>
+      <c r="B24">
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
-        <v>28</v>
+      <c r="B25">
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
-        <v>29</v>
+      <c r="B26">
+        <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>53</v>
       </c>
-      <c r="B27" t="s">
-        <v>30</v>
+      <c r="B27">
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Curso R/bd/regioes.xlsx
+++ b/Curso R/bd/regioes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="69">
   <si>
     <t>uf</t>
   </si>
@@ -560,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -585,7 +585,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -651,10 +651,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>64</v>
@@ -662,18 +662,18 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -750,18 +750,18 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -794,18 +794,18 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -827,18 +827,18 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -860,12 +860,23 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
       <c r="C27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
         <v>68</v>
       </c>
     </row>
